--- a/src/main/resources/file/temp/交班对账.xlsx
+++ b/src/main/resources/file/temp/交班对账.xlsx
@@ -27,71 +27,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+  <si>
+    <t>加气站名称</t>
+  </si>
+  <si>
+    <t>交班人</t>
+  </si>
+  <si>
+    <t>交班时间</t>
+  </si>
+  <si>
+    <t>总加液量(公斤)</t>
+  </si>
+  <si>
+    <t>总金额(元)</t>
+  </si>
+  <si>
+    <t>应收金额(元)</t>
+  </si>
+  <si>
+    <t>实收金额(元)</t>
+  </si>
+  <si>
+    <t>总交易数(笔)</t>
+  </si>
+  <si>
+    <t>充值数据-总充值额(元)</t>
+  </si>
+  <si>
+    <t>充值数据-应收额(元)</t>
+  </si>
+  <si>
+    <t>充值数据-实收金额(元)</t>
+  </si>
+  <si>
+    <t>充值数据-总交易数(笔)</t>
+  </si>
+  <si>
+    <t>充值数据-扣款金额(元)</t>
+  </si>
+  <si>
+    <t>收款渠道</t>
+  </si>
+  <si>
+    <t>枪号汇总</t>
+  </si>
+  <si>
+    <t>班组汇总</t>
+  </si>
+  <si>
+    <t>车队汇总</t>
+  </si>
+  <si>
+    <t>单价汇总</t>
+  </si>
+  <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>班组长签字</t>
+  </si>
+  <si>
+    <t>值班站长签字</t>
+  </si>
   <si>
     <t>加气站id</t>
   </si>
   <si>
-    <t>交班人</t>
-  </si>
-  <si>
-    <t>交班时间</t>
-  </si>
-  <si>
-    <t>总加液量(公斤)</t>
-  </si>
-  <si>
-    <t>总金额(元)</t>
-  </si>
-  <si>
-    <t>应收金额(元)</t>
-  </si>
-  <si>
-    <t>实收金额(元)</t>
-  </si>
-  <si>
-    <t>总交易数(笔)</t>
-  </si>
-  <si>
-    <t>充值数据-总充值额(元)</t>
-  </si>
-  <si>
-    <t>充值数据-应收额(元)</t>
-  </si>
-  <si>
-    <t>充值数据-实收金额(元)</t>
-  </si>
-  <si>
-    <t>充值数据-总交易数(笔)</t>
-  </si>
-  <si>
-    <t>充值数据-扣款金额(元)</t>
-  </si>
-  <si>
-    <t>收款渠道</t>
-  </si>
-  <si>
-    <t>枪号汇总</t>
-  </si>
-  <si>
-    <t>班组汇总</t>
-  </si>
-  <si>
-    <t>车队汇总</t>
-  </si>
-  <si>
-    <t>单价汇总</t>
-  </si>
-  <si>
-    <t>库存</t>
-  </si>
-  <si>
-    <t>班组长签字</t>
-  </si>
-  <si>
-    <t>值班站长签字</t>
-  </si>
-  <si>
     <t>支付方式</t>
   </si>
   <si>
@@ -123,6 +126,12 @@
   </si>
   <si>
     <t>车队名称</t>
+  </si>
+  <si>
+    <t>车-加液金额(元)</t>
+  </si>
+  <si>
+    <t>车-加液量(公斤)</t>
   </si>
   <si>
     <t>充值金额(元)</t>
@@ -1159,8 +1168,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1276,7 +1285,7 @@
     </row>
     <row r="2" ht="52.5" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1315,70 +1324,70 @@
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>18</v>
